--- a/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
+++ b/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SiteOrdersForClientByEmploy-rs\Infrastructure\ApplicationDbContext\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3297F-14DF-46FB-8E9C-90FAF1586CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4D8AB-CFDC-47EB-9474-1D7374FE1D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16110" yWindow="555" windowWidth="12030" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>IT-сфера</t>
   </si>
@@ -413,6 +414,36 @@
   </si>
   <si>
     <t>Юридические услуги</t>
+  </si>
+  <si>
+    <t>Новый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взят в обработку </t>
+  </si>
+  <si>
+    <t>Отменен исполнителем</t>
+  </si>
+  <si>
+    <t>Отменен заказчиком</t>
+  </si>
+  <si>
+    <t>Удален</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -883,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10478F6B-5664-4462-AEDC-779AFD50232E}">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
@@ -1471,4 +1502,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC7A112-2462-4938-8995-1A7F31C97C33}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
+++ b/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SiteOrdersForClientByEmploy-rs\Infrastructure\ApplicationDbContext\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4D8AB-CFDC-47EB-9474-1D7374FE1D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B51D9C-9381-412A-A400-733836AABF86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16110" yWindow="555" windowWidth="12030" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
   <si>
     <t>IT-сфера</t>
   </si>
@@ -437,13 +438,52 @@
     <t>S</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласование исполнителей </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Низкий</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Важный</t>
+  </si>
+  <si>
+    <t>Срочный</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Умеренный</t>
+  </si>
+  <si>
+    <t>CP</t>
   </si>
 </sst>
 </file>
@@ -1506,61 +1546,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC7A112-2462-4938-8995-1A7F31C97C33}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
         <v>133</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7327611-8AC5-44D6-9DCF-05118E850494}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
+++ b/Infrastructure/ApplicationDbContext/Resources/dataTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SiteOrdersForClientByEmploy-rs\Infrastructure\ApplicationDbContext\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B51D9C-9381-412A-A400-733836AABF86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5120566-41BF-43ED-9257-57CC62A36AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="555" windowWidth="12030" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="555" windowWidth="23175" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -423,12 +423,6 @@
     <t xml:space="preserve">Взят в обработку </t>
   </si>
   <si>
-    <t>Отменен исполнителем</t>
-  </si>
-  <si>
-    <t>Отменен заказчиком</t>
-  </si>
-  <si>
     <t>Удален</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -483,7 +474,16 @@
     <t>Умеренный</t>
   </si>
   <si>
-    <t>CP</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнен </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Отменен</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,12 +1563,12 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
@@ -1576,15 +1576,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
@@ -1592,26 +1592,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1638,47 +1638,47 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
